--- a/data/trans_dic/P70C3_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70C3_R_2023-Edad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0307420261731406</v>
+        <v>0.03074202617314059</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.03357928431686039</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006991352924690414</v>
+        <v>0.007178439844281894</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09906382492455722</v>
+        <v>0.1159696918588622</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1663121425447152</v>
+        <v>0.1901000405120495</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0908303701068245</v>
+        <v>0.09535534188416882</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.06418035937867782</v>
+        <v>0.0641803593786778</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.0361334129825625</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0372212930234958</v>
+        <v>0.03829982190640611</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01881756538691685</v>
+        <v>0.018286146740175</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03432281422486167</v>
+        <v>0.03253255760667971</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1095471337170344</v>
+        <v>0.1042404326763447</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06438194215076609</v>
+        <v>0.06195664019547628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07815593966846392</v>
+        <v>0.07688206935905383</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02421913022439979</v>
+        <v>0.02495873173356884</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05369933207896069</v>
+        <v>0.05253461944450881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04182281787974369</v>
+        <v>0.04157534815176376</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0641022003672206</v>
+        <v>0.06460103033819295</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1012982901792132</v>
+        <v>0.09960710490802858</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07136917768612422</v>
+        <v>0.07164425481514869</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06419589086184195</v>
+        <v>0.06419589086184194</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.05998233667078293</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04629049864182505</v>
+        <v>0.04620736717552078</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04300256403820677</v>
+        <v>0.04440639800472503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04899132351188254</v>
+        <v>0.04804098003394679</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08852525210481893</v>
+        <v>0.08834319746976928</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08082691309807127</v>
+        <v>0.07925131241158061</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07668550080761306</v>
+        <v>0.0770182204202068</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05451158355624901</v>
+        <v>0.054511583556249</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04499734075633532</v>
+        <v>0.04499734075633531</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.05057145625524358</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03535328576481168</v>
+        <v>0.03563668772305553</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02655697149908149</v>
+        <v>0.02687949923240475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03524228553342345</v>
+        <v>0.03449166267658551</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08297125938210136</v>
+        <v>0.08097126880303675</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06894715867139446</v>
+        <v>0.06982576959263967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06767262428452256</v>
+        <v>0.06852926967927714</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.0539594493052482</v>
+        <v>0.05395944930524819</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.05460620019918149</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04359302875320618</v>
+        <v>0.043044528259508</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04581276039278368</v>
+        <v>0.04472379500843863</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04678427114854539</v>
+        <v>0.04689029379888909</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06818646381806662</v>
+        <v>0.06651130019046714</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06686642365966716</v>
+        <v>0.06678917320741611</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06377600657495069</v>
+        <v>0.06199950347110883</v>
       </c>
     </row>
     <row r="22">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1374</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10384</v>
+        <v>12156</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15258</v>
+        <v>17440</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17854</v>
+        <v>18743</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14737</v>
+        <v>15164</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6007</v>
+        <v>5837</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24545</v>
+        <v>23265</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>43372</v>
+        <v>41271</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20551</v>
+        <v>19777</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>55891</v>
+        <v>54980</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13036</v>
+        <v>13434</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21291</v>
+        <v>20829</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39093</v>
+        <v>38862</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34503</v>
+        <v>34771</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40163</v>
+        <v>39493</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66711</v>
+        <v>66968</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25313</v>
+        <v>25267</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19596</v>
+        <v>20236</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49115</v>
+        <v>48162</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48408</v>
+        <v>48308</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36832</v>
+        <v>36114</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>76878</v>
+        <v>77212</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11646</v>
+        <v>11739</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6184</v>
+        <v>6259</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19815</v>
+        <v>19393</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27331</v>
+        <v>26672</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16054</v>
+        <v>16258</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38049</v>
+        <v>38530</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>83490</v>
+        <v>82440</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>68534</v>
+        <v>66905</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>159590</v>
+        <v>159951</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>130592</v>
+        <v>127384</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>100030</v>
+        <v>99914</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>217552</v>
+        <v>211492</v>
       </c>
     </row>
     <row r="28">
